--- a/UZ-REPOS/SPA/EDITION/DOC/SPA_Stat_2018.09.12.xlsx
+++ b/UZ-REPOS/SPA/EDITION/DOC/SPA_Stat_2018.09.12.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="172">
   <si>
     <t>HL</t>
   </si>
@@ -366,6 +366,192 @@
   </si>
   <si>
     <t>SynchronizeOnSMSC</t>
+  </si>
+  <si>
+    <t>Block Subscriber</t>
+  </si>
+  <si>
+    <t>135,76</t>
+  </si>
+  <si>
+    <t>Unblock Subscriber</t>
+  </si>
+  <si>
+    <t>20,29</t>
+  </si>
+  <si>
+    <t>Break Session</t>
+  </si>
+  <si>
+    <t>15,76</t>
+  </si>
+  <si>
+    <t>Create Subscriber</t>
+  </si>
+  <si>
+    <t>14,13</t>
+  </si>
+  <si>
+    <t>Delete Subscriber in All platform</t>
+  </si>
+  <si>
+    <t>44,21</t>
+  </si>
+  <si>
+    <t>IVR Caller</t>
+  </si>
+  <si>
+    <t>56,14</t>
+  </si>
+  <si>
+    <t>CancelLocation</t>
+  </si>
+  <si>
+    <t>5,31</t>
+  </si>
+  <si>
+    <t>Remove Services</t>
+  </si>
+  <si>
+    <t>Assign Services</t>
+  </si>
+  <si>
+    <t>10,49</t>
+  </si>
+  <si>
+    <t>Add MCA Serice</t>
+  </si>
+  <si>
+    <t>12,62</t>
+  </si>
+  <si>
+    <t>Delete MCA Service</t>
+  </si>
+  <si>
+    <t>12,18</t>
+  </si>
+  <si>
+    <t>Change MSI</t>
+  </si>
+  <si>
+    <t>37,63</t>
+  </si>
+  <si>
+    <t>Add RBT Service</t>
+  </si>
+  <si>
+    <t>8,69</t>
+  </si>
+  <si>
+    <t>Delete RBT Service</t>
+  </si>
+  <si>
+    <t>10,13</t>
+  </si>
+  <si>
+    <t>Remove 3G Services</t>
+  </si>
+  <si>
+    <t>13,68</t>
+  </si>
+  <si>
+    <t>Assign 3G Services</t>
+  </si>
+  <si>
+    <t>17,33</t>
+  </si>
+  <si>
+    <t>Delete Subscriber</t>
+  </si>
+  <si>
+    <t>16,65</t>
+  </si>
+  <si>
+    <t>Synchronize Subscriber Data</t>
+  </si>
+  <si>
+    <t>510,74</t>
+  </si>
+  <si>
+    <t>ReSubscribeSCGAdd</t>
+  </si>
+  <si>
+    <t>9,55</t>
+  </si>
+  <si>
+    <t>ReSubscribeSCGDelete</t>
+  </si>
+  <si>
+    <t>5,49</t>
+  </si>
+  <si>
+    <t>Assign Services SCG</t>
+  </si>
+  <si>
+    <t>9,85</t>
+  </si>
+  <si>
+    <t>Remove Services from Financial Platform</t>
+  </si>
+  <si>
+    <t>4,74</t>
+  </si>
+  <si>
+    <t>Roaming Test Util Request</t>
+  </si>
+  <si>
+    <t>4,91</t>
+  </si>
+  <si>
+    <t>Change tariff plan</t>
+  </si>
+  <si>
+    <t>15,17</t>
+  </si>
+  <si>
+    <t>Remove InOut Services</t>
+  </si>
+  <si>
+    <t>5,69</t>
+  </si>
+  <si>
+    <t>Remove Services SCG</t>
+  </si>
+  <si>
+    <t>5,05</t>
+  </si>
+  <si>
+    <t>Create Subscriber in All platform</t>
+  </si>
+  <si>
+    <t>78,91</t>
+  </si>
+  <si>
+    <t>Assign InOut Services</t>
+  </si>
+  <si>
+    <t>7,19</t>
+  </si>
+  <si>
+    <t>DummyResponder</t>
+  </si>
+  <si>
+    <t>12,36</t>
+  </si>
+  <si>
+    <t>ReSubscribeSCG</t>
+  </si>
+  <si>
+    <t>1,92</t>
+  </si>
+  <si>
+    <t>Assign Services on Financial Platform</t>
+  </si>
+  <si>
+    <t>9,75</t>
+  </si>
+  <si>
+    <t>GetSubscriberByMSISDN</t>
   </si>
 </sst>
 </file>
@@ -440,10 +626,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1257,15 +1446,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C60"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
@@ -1281,8 +1470,361 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>6038764</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>6012928</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>1365982</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5">
+        <v>371101</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>342801</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>266539</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>242509</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9">
+        <v>216043</v>
+      </c>
+      <c r="C9" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10">
+        <v>100159</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11">
+        <v>57297</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12">
+        <v>29826</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13">
+        <v>25913</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>11644</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15">
+        <v>7916</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16">
+        <v>7407</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17">
+        <v>6838</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18">
+        <v>4372</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19">
+        <v>3668</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20">
+        <v>731</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21">
+        <v>688</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22">
+        <v>538</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23">
+        <v>246</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24">
+        <v>182</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25">
+        <v>124</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26">
+        <v>75</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
